--- a/Excel/DefendDropConfig.xlsx
+++ b/Excel/DefendDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
   <dimension ref="C1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1518,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="1">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>29</v>
       </c>
       <c r="G15" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>

--- a/Excel/DefendDropConfig.xlsx
+++ b/Excel/DefendDropConfig.xlsx
@@ -1139,7 +1139,7 @@
   <dimension ref="C1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/DefendDropConfig.xlsx
+++ b/Excel/DefendDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -150,7 +150,7 @@
     <t>百层的整数倍，大概率掉落</t>
   </si>
   <si>
-    <t>灵魂之引</t>
+    <t>摄魂瓶</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1139,7 @@
   <dimension ref="C1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/DefendDropConfig.xlsx
+++ b/Excel/DefendDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -114,19 +114,19 @@
     <t>图鉴碎片</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>沙城图鉴</t>
+  </si>
+  <si>
+    <t>每百层大概5个</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
     <t>橙色图鉴</t>
-  </si>
-  <si>
-    <t>每百层大概5个</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>沙城图鉴</t>
   </si>
   <si>
     <t>2006</t>
@@ -1136,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:M15"/>
+  <dimension ref="C1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="20" customHeight="1" spans="3:13">
       <c r="C7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
@@ -1343,13 +1343,13 @@
         <v>10</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1">
         <v>10000</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
         <v>50</v>
@@ -1361,91 +1361,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1">
-        <v>50</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:13">
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
       <c r="H10" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>10000</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="20" customHeight="1" spans="3:13">
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
         <v>20</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:13">
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3001</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1457,39 +1422,39 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
         <v>50</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:13">
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3002</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10000</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K12" s="1">
         <v>50</v>
@@ -1501,24 +1466,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="5:5">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="3:12">
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C14" s="1">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="4">
-        <v>180017</v>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1">
-        <v>50000</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1527,30 +1489,33 @@
         <v>10000</v>
       </c>
       <c r="J14" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:12">
+        <v>14</v>
+      </c>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20" customHeight="1" spans="3:13">
       <c r="C15" s="1">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="4">
-        <v>180018</v>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1559,18 +1524,263 @@
         <v>10000</v>
       </c>
       <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>50</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
+        <v>50</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:13">
+      <c r="C18" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1">
+        <v>20</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:13">
+      <c r="C19" s="1">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3001</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>50</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:13">
+      <c r="C20" s="1">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3002</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="5:5">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:12">
+      <c r="C22" s="1">
+        <v>101</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>180017</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="1">
         <v>100</v>
       </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:12">
+      <c r="C23" s="1">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>180018</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>100</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 F3 D4 E4 D5 E5 C4:C5 F4:F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DefendDropConfig.xlsx
+++ b/Excel/DefendDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -1136,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:M23"/>
+  <dimension ref="C1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1711,24 +1711,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="5:5">
-      <c r="E21" s="3"/>
+    <row r="21" customHeight="1" spans="3:12">
+      <c r="C21" s="1">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>180017</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>100</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" customHeight="1" spans="3:12">
       <c r="C22" s="1">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="4">
-        <v>180017</v>
+        <v>180018</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1746,35 +1775,325 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:12">
-      <c r="C23" s="1">
-        <v>102</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4">
+    <row r="23" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C24" s="1">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="20" customHeight="1" spans="3:13">
+      <c r="C25" s="1">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C26" s="1">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>50</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C27" s="1">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <v>50</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1">
+        <v>50</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:13">
+      <c r="C28" s="1">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1">
+        <v>20</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:13">
+      <c r="C29" s="1">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3001</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>50</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:13">
+      <c r="C30" s="1">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3002</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>50</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:12">
+      <c r="C31" s="1">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4">
+        <v>180017</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>100</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:12">
+      <c r="C32" s="1">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4">
         <v>180018</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="1">
         <v>100</v>
       </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Excel/DefendDropConfig.xlsx
+++ b/Excel/DefendDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -123,6 +123,18 @@
     <t>每百层大概5个</t>
   </si>
   <si>
+    <t>220017</t>
+  </si>
+  <si>
+    <t>220018</t>
+  </si>
+  <si>
+    <t>220019</t>
+  </si>
+  <si>
+    <t>220020</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
@@ -151,6 +163,12 @@
   </si>
   <si>
     <t>摄魂瓶</t>
+  </si>
+  <si>
+    <t>220022</t>
+  </si>
+  <si>
+    <t>220023</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="C1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1340,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>50</v>
@@ -1349,10 +1367,10 @@
         <v>10000</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>19</v>
@@ -1369,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -1404,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -1445,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1">
         <v>50</v>
@@ -1454,10 +1472,10 @@
         <v>10000</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>19</v>
@@ -1474,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -1509,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
@@ -1544,10 +1562,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1">
         <v>10</v>
@@ -1614,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1">
         <v>4</v>
@@ -1635,7 +1653,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M18" s="1">
         <v>2</v>
@@ -1652,7 +1670,7 @@
         <v>3001</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1">
         <v>10</v>
@@ -1687,7 +1705,7 @@
         <v>3002</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1">
         <v>10</v>
@@ -1722,7 +1740,7 @@
         <v>180017</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G21" s="1">
         <v>50000</v>
@@ -1740,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:12">
@@ -1754,7 +1772,7 @@
         <v>180018</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1">
         <v>10000</v>
@@ -1772,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="3:13">
@@ -1796,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1831,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>16</v>
@@ -1866,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1">
         <v>10</v>
@@ -1936,10 +1954,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G28" s="1">
         <v>4</v>
@@ -1957,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M28" s="1">
         <v>2</v>
@@ -1974,7 +1992,7 @@
         <v>3001</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1">
         <v>10</v>
@@ -2009,7 +2027,7 @@
         <v>3002</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G30" s="1">
         <v>10</v>
@@ -2044,7 +2062,7 @@
         <v>180017</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -2062,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:12">
@@ -2076,7 +2094,7 @@
         <v>180018</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2094,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DefendDropConfig.xlsx
+++ b/Excel/DefendDropConfig.xlsx
@@ -360,12 +360,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1157,7 +1157,7 @@
   <dimension ref="C1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="E16" sqref="E16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/DefendDropConfig.xlsx
+++ b/Excel/DefendDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -360,12 +360,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1156,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="C1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2065,7 +2065,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
